--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>282.4226379394531</v>
+        <v>293.9069519042969</v>
       </c>
       <c r="H2" t="n">
-        <v>32.39069366455078</v>
+        <v>52.65136337280273</v>
       </c>
       <c r="I2" t="n">
-        <v>789.4304809570312</v>
+        <v>784.6348266601562</v>
       </c>
       <c r="J2" t="n">
-        <v>25.87368202209473</v>
+        <v>35.42421722412109</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>340.0695495605469</v>
+        <v>358.3587341308594</v>
       </c>
       <c r="H3" t="n">
-        <v>39.94340515136719</v>
+        <v>59.27399444580078</v>
       </c>
       <c r="I3" t="n">
-        <v>831.591796875</v>
+        <v>827.19287109375</v>
       </c>
       <c r="J3" t="n">
-        <v>29.2442626953125</v>
+        <v>38.20663833618164</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>401.8614807128906</v>
+        <v>423.8785705566406</v>
       </c>
       <c r="H4" t="n">
-        <v>42.85609436035156</v>
+        <v>59.54753112792969</v>
       </c>
       <c r="I4" t="n">
-        <v>856.9963989257812</v>
+        <v>853.8847045898438</v>
       </c>
       <c r="J4" t="n">
-        <v>32.20285415649414</v>
+        <v>42.63979721069336</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>471.0965270996094</v>
+        <v>493.5858154296875</v>
       </c>
       <c r="H5" t="n">
-        <v>41.37863922119141</v>
+        <v>56.44256973266602</v>
       </c>
       <c r="I5" t="n">
-        <v>878.73974609375</v>
+        <v>876.851806640625</v>
       </c>
       <c r="J5" t="n">
-        <v>34.88138580322266</v>
+        <v>48.86238861083984</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>556.0823974609375</v>
+        <v>576.7731323242188</v>
       </c>
       <c r="H6" t="n">
-        <v>35.43463134765625</v>
+        <v>50.23215103149414</v>
       </c>
       <c r="I6" t="n">
-        <v>893.802978515625</v>
+        <v>894.710693359375</v>
       </c>
       <c r="J6" t="n">
-        <v>39.63201904296875</v>
+        <v>58.90350723266602</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>219.1132659912109</v>
+        <v>213.4592895507812</v>
       </c>
       <c r="H7" t="n">
-        <v>28.04274368286133</v>
+        <v>25.48153495788574</v>
       </c>
       <c r="I7" t="n">
-        <v>647.3469848632812</v>
+        <v>643.6582641601562</v>
       </c>
       <c r="J7" t="n">
-        <v>26.74526214599609</v>
+        <v>28.96100997924805</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>237.3573455810547</v>
+        <v>240.1150970458984</v>
       </c>
       <c r="H8" t="n">
-        <v>23.0373477935791</v>
+        <v>27.83981132507324</v>
       </c>
       <c r="I8" t="n">
-        <v>715.4169311523438</v>
+        <v>711.8693237304688</v>
       </c>
       <c r="J8" t="n">
-        <v>25.4838809967041</v>
+        <v>33.35991287231445</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>285.8414611816406</v>
+        <v>300.2117919921875</v>
       </c>
       <c r="H9" t="n">
-        <v>25.89801597595215</v>
+        <v>34.43965530395508</v>
       </c>
       <c r="I9" t="n">
-        <v>795.5011596679688</v>
+        <v>793.9734497070312</v>
       </c>
       <c r="J9" t="n">
-        <v>26.62582397460938</v>
+        <v>39.80715560913086</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>338.8670043945312</v>
+        <v>359.57373046875</v>
       </c>
       <c r="H10" t="n">
-        <v>30.37158203125</v>
+        <v>37.91823196411133</v>
       </c>
       <c r="I10" t="n">
-        <v>839.796142578125</v>
+        <v>840.2178344726562</v>
       </c>
       <c r="J10" t="n">
-        <v>28.82945823669434</v>
+        <v>44.2578010559082</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>424.16259765625</v>
+        <v>447.568603515625</v>
       </c>
       <c r="H11" t="n">
-        <v>32.08599472045898</v>
+        <v>38.96540832519531</v>
       </c>
       <c r="I11" t="n">
-        <v>885.3074340820312</v>
+        <v>888.2083129882812</v>
       </c>
       <c r="J11" t="n">
-        <v>32.57307815551758</v>
+        <v>50.55086135864258</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>510.516845703125</v>
+        <v>530.3082885742188</v>
       </c>
       <c r="H12" t="n">
-        <v>28.38504409790039</v>
+        <v>36.94967269897461</v>
       </c>
       <c r="I12" t="n">
-        <v>918.244873046875</v>
+        <v>926.3215942382812</v>
       </c>
       <c r="J12" t="n">
-        <v>39.42360305786133</v>
+        <v>60.35381698608398</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>614.5828247070312</v>
+        <v>626.8472290039062</v>
       </c>
       <c r="H13" t="n">
-        <v>21.60939788818359</v>
+        <v>32.72494506835938</v>
       </c>
       <c r="I13" t="n">
-        <v>950.3970336914062</v>
+        <v>963.2914428710938</v>
       </c>
       <c r="J13" t="n">
-        <v>48.864013671875</v>
+        <v>71.99126434326172</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>207.7037200927734</v>
+        <v>182.2806549072266</v>
       </c>
       <c r="H14" t="n">
-        <v>49.0007209777832</v>
+        <v>31.16180229187012</v>
       </c>
       <c r="I14" t="n">
-        <v>392.8139953613281</v>
+        <v>394.8958740234375</v>
       </c>
       <c r="J14" t="n">
-        <v>36.84135055541992</v>
+        <v>28.4003734588623</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>209.7822723388672</v>
+        <v>195.9691009521484</v>
       </c>
       <c r="H15" t="n">
-        <v>34.41207504272461</v>
+        <v>23.05832672119141</v>
       </c>
       <c r="I15" t="n">
-        <v>517.2260131835938</v>
+        <v>517.3189697265625</v>
       </c>
       <c r="J15" t="n">
-        <v>33.07436370849609</v>
+        <v>26.54759979248047</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>237.4646453857422</v>
+        <v>244.9327850341797</v>
       </c>
       <c r="H16" t="n">
-        <v>20.46932220458984</v>
+        <v>17.0506706237793</v>
       </c>
       <c r="I16" t="n">
-        <v>673.1442260742188</v>
+        <v>673.9364013671875</v>
       </c>
       <c r="J16" t="n">
-        <v>28.35666847229004</v>
+        <v>35.16719818115234</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>246.7522430419922</v>
+        <v>252.6516571044922</v>
       </c>
       <c r="H17" t="n">
-        <v>19.11108016967773</v>
+        <v>18.78994560241699</v>
       </c>
       <c r="I17" t="n">
-        <v>699.7827758789062</v>
+        <v>700.6535034179688</v>
       </c>
       <c r="J17" t="n">
-        <v>30.86079406738281</v>
+        <v>37.80127334594727</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>293.1014099121094</v>
+        <v>307.8020935058594</v>
       </c>
       <c r="H18" t="n">
-        <v>22.70003700256348</v>
+        <v>24.20825958251953</v>
       </c>
       <c r="I18" t="n">
-        <v>785.9087524414062</v>
+        <v>788.260009765625</v>
       </c>
       <c r="J18" t="n">
-        <v>31.44235610961914</v>
+        <v>45.39933395385742</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>371.6376647949219</v>
+        <v>391.2932434082031</v>
       </c>
       <c r="H19" t="n">
-        <v>27.16117286682129</v>
+        <v>28.38647651672363</v>
       </c>
       <c r="I19" t="n">
-        <v>861.033447265625</v>
+        <v>867.538818359375</v>
       </c>
       <c r="J19" t="n">
-        <v>36.80884552001953</v>
+        <v>56.75500869750977</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>462.889892578125</v>
+        <v>481.43017578125</v>
       </c>
       <c r="H20" t="n">
-        <v>26.54315948486328</v>
+        <v>28.68795013427734</v>
       </c>
       <c r="I20" t="n">
-        <v>918.259765625</v>
+        <v>928.1975708007812</v>
       </c>
       <c r="J20" t="n">
-        <v>42.21700286865234</v>
+        <v>66.02727508544922</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>576.0552978515625</v>
+        <v>587.0055541992188</v>
       </c>
       <c r="H21" t="n">
-        <v>21.16296005249023</v>
+        <v>25.43424224853516</v>
       </c>
       <c r="I21" t="n">
-        <v>966.28076171875</v>
+        <v>981.8361206054688</v>
       </c>
       <c r="J21" t="n">
-        <v>53.51039505004883</v>
+        <v>80.98973846435547</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>705.379638671875</v>
+        <v>702.221435546875</v>
       </c>
       <c r="H22" t="n">
-        <v>21.60020065307617</v>
+        <v>27.78697204589844</v>
       </c>
       <c r="I22" t="n">
-        <v>1007.0859375</v>
+        <v>1026.991821289062</v>
       </c>
       <c r="J22" t="n">
-        <v>72.19447326660156</v>
+        <v>96.61525726318359</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>211.5413970947266</v>
+        <v>183.763671875</v>
       </c>
       <c r="H23" t="n">
-        <v>50.31589889526367</v>
+        <v>31.56501960754395</v>
       </c>
       <c r="I23" t="n">
-        <v>255.7410736083984</v>
+        <v>263.67822265625</v>
       </c>
       <c r="J23" t="n">
-        <v>39.99424362182617</v>
+        <v>39.27474594116211</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>211.0474700927734</v>
+        <v>190.0608062744141</v>
       </c>
       <c r="H24" t="n">
-        <v>39.64759063720703</v>
+        <v>25.71070098876953</v>
       </c>
       <c r="I24" t="n">
-        <v>331.7083435058594</v>
+        <v>338.5273132324219</v>
       </c>
       <c r="J24" t="n">
-        <v>38.18080520629883</v>
+        <v>34.53308868408203</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>216.7325897216797</v>
+        <v>206.382568359375</v>
       </c>
       <c r="H25" t="n">
-        <v>26.25587463378906</v>
+        <v>18.29208183288574</v>
       </c>
       <c r="I25" t="n">
-        <v>455.0954895019531</v>
+        <v>460.2368469238281</v>
       </c>
       <c r="J25" t="n">
-        <v>35.89330291748047</v>
+        <v>31.87567710876465</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>231.6101226806641</v>
+        <v>230.1822357177734</v>
       </c>
       <c r="H26" t="n">
-        <v>18.45630836486816</v>
+        <v>15.47313594818115</v>
       </c>
       <c r="I26" t="n">
-        <v>560.3612060546875</v>
+        <v>564.71044921875</v>
       </c>
       <c r="J26" t="n">
-        <v>34.98550415039062</v>
+        <v>34.84097671508789</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>263.7956237792969</v>
+        <v>271.0718994140625</v>
       </c>
       <c r="H27" t="n">
-        <v>18.66006660461426</v>
+        <v>18.53079795837402</v>
       </c>
       <c r="I27" t="n">
-        <v>660.7890625</v>
+        <v>665.6787719726562</v>
       </c>
       <c r="J27" t="n">
-        <v>37.7194709777832</v>
+        <v>44.76342391967773</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>331.3865661621094</v>
+        <v>346.0838623046875</v>
       </c>
       <c r="H28" t="n">
-        <v>25.57616233825684</v>
+        <v>24.36480712890625</v>
       </c>
       <c r="I28" t="n">
-        <v>788.7610473632812</v>
+        <v>795.3128051757812</v>
       </c>
       <c r="J28" t="n">
-        <v>44.05840682983398</v>
+        <v>60.69742584228516</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>415.6474609375</v>
+        <v>431.0632019042969</v>
       </c>
       <c r="H29" t="n">
-        <v>28.05363845825195</v>
+        <v>25.74890327453613</v>
       </c>
       <c r="I29" t="n">
-        <v>876.849365234375</v>
+        <v>885.9498901367188</v>
       </c>
       <c r="J29" t="n">
-        <v>51.64236068725586</v>
+        <v>75.80380249023438</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>546.401123046875</v>
+        <v>556.2657470703125</v>
       </c>
       <c r="H30" t="n">
-        <v>25.36581230163574</v>
+        <v>21.83137321472168</v>
       </c>
       <c r="I30" t="n">
-        <v>962.7924194335938</v>
+        <v>975.75146484375</v>
       </c>
       <c r="J30" t="n">
-        <v>61.71531295776367</v>
+        <v>93.19727325439453</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>677.86181640625</v>
+        <v>673.9092407226562</v>
       </c>
       <c r="H31" t="n">
-        <v>23.1551685333252</v>
+        <v>21.43905067443848</v>
       </c>
       <c r="I31" t="n">
-        <v>1018.544250488281</v>
+        <v>1034.417602539062</v>
       </c>
       <c r="J31" t="n">
-        <v>80.92961120605469</v>
+        <v>118.8562622070312</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>217.7450103759766</v>
+        <v>188.5180053710938</v>
       </c>
       <c r="H32" t="n">
-        <v>49.99509811401367</v>
+        <v>31.31835556030273</v>
       </c>
       <c r="I32" t="n">
-        <v>97.45862579345703</v>
+        <v>112.5235214233398</v>
       </c>
       <c r="J32" t="n">
-        <v>44.96228790283203</v>
+        <v>48.25624084472656</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>215.9037475585938</v>
+        <v>194.9334869384766</v>
       </c>
       <c r="H33" t="n">
-        <v>36.99798202514648</v>
+        <v>24.39289474487305</v>
       </c>
       <c r="I33" t="n">
-        <v>186.559326171875</v>
+        <v>200.2506713867188</v>
       </c>
       <c r="J33" t="n">
-        <v>42.79514312744141</v>
+        <v>43.88162231445312</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>220.0892944335938</v>
+        <v>207.7667999267578</v>
       </c>
       <c r="H34" t="n">
-        <v>25.11578178405762</v>
+        <v>18.64992523193359</v>
       </c>
       <c r="I34" t="n">
-        <v>292.4289245605469</v>
+        <v>304.1744689941406</v>
       </c>
       <c r="J34" t="n">
-        <v>39.80981826782227</v>
+        <v>39.67766189575195</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>233.0020904541016</v>
+        <v>228.4318084716797</v>
       </c>
       <c r="H35" t="n">
-        <v>17.24458122253418</v>
+        <v>16.34779167175293</v>
       </c>
       <c r="I35" t="n">
-        <v>383.9717712402344</v>
+        <v>394.0369567871094</v>
       </c>
       <c r="J35" t="n">
-        <v>39.51531982421875</v>
+        <v>40.14437866210938</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>263.2089538574219</v>
+        <v>267.5199584960938</v>
       </c>
       <c r="H36" t="n">
-        <v>18.21018409729004</v>
+        <v>18.96231651306152</v>
       </c>
       <c r="I36" t="n">
-        <v>542.18115234375</v>
+        <v>549.4378662109375</v>
       </c>
       <c r="J36" t="n">
-        <v>43.26923370361328</v>
+        <v>48.47755432128906</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>307.60302734375</v>
+        <v>317.861083984375</v>
       </c>
       <c r="H37" t="n">
-        <v>24.97779083251953</v>
+        <v>22.86441802978516</v>
       </c>
       <c r="I37" t="n">
-        <v>657.7547607421875</v>
+        <v>663.7700805664062</v>
       </c>
       <c r="J37" t="n">
-        <v>52.53625869750977</v>
+        <v>64.06317138671875</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>395.2893981933594</v>
+        <v>408.1788024902344</v>
       </c>
       <c r="H38" t="n">
-        <v>30.77402496337891</v>
+        <v>24.85530090332031</v>
       </c>
       <c r="I38" t="n">
-        <v>811.1692504882812</v>
+        <v>816.9601440429688</v>
       </c>
       <c r="J38" t="n">
-        <v>64.07717895507812</v>
+        <v>85.65683746337891</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>496.4649658203125</v>
+        <v>505.5179443359375</v>
       </c>
       <c r="H39" t="n">
-        <v>29.81027984619141</v>
+        <v>21.03084945678711</v>
       </c>
       <c r="I39" t="n">
-        <v>908.501953125</v>
+        <v>914.8649291992188</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16828918457031</v>
+        <v>112.9508972167969</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>643.7482299804688</v>
+        <v>640.543701171875</v>
       </c>
       <c r="H40" t="n">
-        <v>27.2626895904541</v>
+        <v>18.61253929138184</v>
       </c>
       <c r="I40" t="n">
-        <v>1004.599182128906</v>
+        <v>1010.682800292969</v>
       </c>
       <c r="J40" t="n">
-        <v>94.09519958496094</v>
+        <v>145.3420715332031</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>222.1769561767578</v>
+        <v>196.5506439208984</v>
       </c>
       <c r="H41" t="n">
-        <v>42.39223480224609</v>
+        <v>27.26651763916016</v>
       </c>
       <c r="I41" t="n">
-        <v>-20.8084774017334</v>
+        <v>1.104456543922424</v>
       </c>
       <c r="J41" t="n">
-        <v>55.25986862182617</v>
+        <v>51.68677520751953</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0537719726562</v>
+        <v>202.5961456298828</v>
       </c>
       <c r="H42" t="n">
-        <v>32.2811279296875</v>
+        <v>22.35473442077637</v>
       </c>
       <c r="I42" t="n">
-        <v>35.27944946289062</v>
+        <v>56.62933349609375</v>
       </c>
       <c r="J42" t="n">
-        <v>53.17223739624023</v>
+        <v>49.37738418579102</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>224.8260345458984</v>
+        <v>210.1044311523438</v>
       </c>
       <c r="H43" t="n">
-        <v>25.05636596679688</v>
+        <v>19.23681831359863</v>
       </c>
       <c r="I43" t="n">
-        <v>88.20864105224609</v>
+        <v>108.2462387084961</v>
       </c>
       <c r="J43" t="n">
-        <v>50.05189895629883</v>
+        <v>46.32600784301758</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>238.254638671875</v>
+        <v>233.5562896728516</v>
       </c>
       <c r="H44" t="n">
-        <v>16.04680061340332</v>
+        <v>16.90632820129395</v>
       </c>
       <c r="I44" t="n">
-        <v>245.3993682861328</v>
+        <v>259.8025817871094</v>
       </c>
       <c r="J44" t="n">
-        <v>44.78567123413086</v>
+        <v>44.67107391357422</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>255.3889617919922</v>
+        <v>255.6264038085938</v>
       </c>
       <c r="H45" t="n">
-        <v>16.54001617431641</v>
+        <v>18.15171813964844</v>
       </c>
       <c r="I45" t="n">
-        <v>333.0068054199219</v>
+        <v>344.0601806640625</v>
       </c>
       <c r="J45" t="n">
-        <v>45.57168197631836</v>
+        <v>47.39760208129883</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>294.5174865722656</v>
+        <v>301.2962951660156</v>
       </c>
       <c r="H46" t="n">
-        <v>23.45052719116211</v>
+        <v>21.39028930664062</v>
       </c>
       <c r="I46" t="n">
-        <v>490.4588928222656</v>
+        <v>496.0843200683594</v>
       </c>
       <c r="J46" t="n">
-        <v>56.99293899536133</v>
+        <v>64.63911437988281</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>366.66650390625</v>
+        <v>377.2490234375</v>
       </c>
       <c r="H47" t="n">
-        <v>31.15167045593262</v>
+        <v>23.16768264770508</v>
       </c>
       <c r="I47" t="n">
-        <v>667.1464233398438</v>
+        <v>667.8602905273438</v>
       </c>
       <c r="J47" t="n">
-        <v>77.32579803466797</v>
+        <v>95.14614868164062</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>477.0184631347656</v>
+        <v>486.000244140625</v>
       </c>
       <c r="H48" t="n">
-        <v>33.01504516601562</v>
+        <v>20.47105407714844</v>
       </c>
       <c r="I48" t="n">
-        <v>849.9268188476562</v>
+        <v>848.7421264648438</v>
       </c>
       <c r="J48" t="n">
-        <v>94.60084533691406</v>
+        <v>129.2929534912109</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>591.8316040039062</v>
+        <v>592.4202880859375</v>
       </c>
       <c r="H49" t="n">
-        <v>30.42898368835449</v>
+        <v>17.92377662658691</v>
       </c>
       <c r="I49" t="n">
-        <v>959.9682006835938</v>
+        <v>955.572265625</v>
       </c>
       <c r="J49" t="n">
-        <v>106.8686370849609</v>
+        <v>161.2301177978516</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>228.3941192626953</v>
+        <v>206.9846954345703</v>
       </c>
       <c r="H50" t="n">
-        <v>34.50407791137695</v>
+        <v>23.25614547729492</v>
       </c>
       <c r="I50" t="n">
-        <v>-145.9392395019531</v>
+        <v>-118.979606628418</v>
       </c>
       <c r="J50" t="n">
-        <v>66.29026794433594</v>
+        <v>49.75120162963867</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>230.2364349365234</v>
+        <v>214.9022827148438</v>
       </c>
       <c r="H51" t="n">
-        <v>25.07915878295898</v>
+        <v>19.26506996154785</v>
       </c>
       <c r="I51" t="n">
-        <v>-95.75933074951172</v>
+        <v>-69.27910614013672</v>
       </c>
       <c r="J51" t="n">
-        <v>64.94845581054688</v>
+        <v>49.15549087524414</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>234.1293487548828</v>
+        <v>222.3571624755859</v>
       </c>
       <c r="H52" t="n">
-        <v>20.19442176818848</v>
+        <v>17.52876853942871</v>
       </c>
       <c r="I52" t="n">
-        <v>-63.004150390625</v>
+        <v>-37.82893753051758</v>
       </c>
       <c r="J52" t="n">
-        <v>62.87007522583008</v>
+        <v>47.47670745849609</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>245.9066009521484</v>
+        <v>241.2500610351562</v>
       </c>
       <c r="H53" t="n">
-        <v>15.4131441116333</v>
+        <v>16.54875373840332</v>
       </c>
       <c r="I53" t="n">
-        <v>52.86209106445312</v>
+        <v>71.66075897216797</v>
       </c>
       <c r="J53" t="n">
-        <v>58.74610900878906</v>
+        <v>48.85805511474609</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>263.9737243652344</v>
+        <v>264.4487609863281</v>
       </c>
       <c r="H54" t="n">
-        <v>17.0743408203125</v>
+        <v>17.65449714660645</v>
       </c>
       <c r="I54" t="n">
-        <v>169.4894866943359</v>
+        <v>181.7900390625</v>
       </c>
       <c r="J54" t="n">
-        <v>56.30131149291992</v>
+        <v>52.44524765014648</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>293.2446594238281</v>
+        <v>298.5211181640625</v>
       </c>
       <c r="H55" t="n">
-        <v>22.69404602050781</v>
+        <v>19.74342727661133</v>
       </c>
       <c r="I55" t="n">
-        <v>324.5761413574219</v>
+        <v>329.4954833984375</v>
       </c>
       <c r="J55" t="n">
-        <v>62.13497161865234</v>
+        <v>66.35153198242188</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>341.6109313964844</v>
+        <v>350.4827880859375</v>
       </c>
       <c r="H56" t="n">
-        <v>28.8896541595459</v>
+        <v>20.63242530822754</v>
       </c>
       <c r="I56" t="n">
-        <v>474.2353515625</v>
+        <v>470.8531188964844</v>
       </c>
       <c r="J56" t="n">
-        <v>83.55421447753906</v>
+        <v>98.41157531738281</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>425.8963317871094</v>
+        <v>435.8565673828125</v>
       </c>
       <c r="H57" t="n">
-        <v>34.33698654174805</v>
+        <v>20.54692077636719</v>
       </c>
       <c r="I57" t="n">
-        <v>694.626220703125</v>
+        <v>684.5339965820312</v>
       </c>
       <c r="J57" t="n">
-        <v>105.3563537597656</v>
+        <v>133.2148590087891</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>559.2039184570312</v>
+        <v>561.8662109375</v>
       </c>
       <c r="H58" t="n">
-        <v>33.09024429321289</v>
+        <v>18.20897102355957</v>
       </c>
       <c r="I58" t="n">
-        <v>892.9729614257812</v>
+        <v>874.9354858398438</v>
       </c>
       <c r="J58" t="n">
-        <v>129.7077789306641</v>
+        <v>189.5258483886719</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>239.1166229248047</v>
+        <v>227.7947387695312</v>
       </c>
       <c r="H59" t="n">
-        <v>20.65997886657715</v>
+        <v>17.46092414855957</v>
       </c>
       <c r="I59" t="n">
-        <v>-211.7611694335938</v>
+        <v>-184.1420745849609</v>
       </c>
       <c r="J59" t="n">
-        <v>70.49911499023438</v>
+        <v>45.5971565246582</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>245.2979278564453</v>
+        <v>238.3142547607422</v>
       </c>
       <c r="H60" t="n">
-        <v>17.20358657836914</v>
+        <v>16.20406341552734</v>
       </c>
       <c r="I60" t="n">
-        <v>-170.1532897949219</v>
+        <v>-145.8186187744141</v>
       </c>
       <c r="J60" t="n">
-        <v>71.60126495361328</v>
+        <v>47.67976760864258</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>253.2903900146484</v>
+        <v>249.7830963134766</v>
       </c>
       <c r="H61" t="n">
-        <v>15.79606437683105</v>
+        <v>15.9533224105835</v>
       </c>
       <c r="I61" t="n">
-        <v>-103.8432998657227</v>
+        <v>-83.07999420166016</v>
       </c>
       <c r="J61" t="n">
-        <v>68.910400390625</v>
+        <v>48.42480850219727</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>267.6418151855469</v>
+        <v>268.342529296875</v>
       </c>
       <c r="H62" t="n">
-        <v>17.31148338317871</v>
+        <v>16.48739814758301</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.91436767578125</v>
+        <v>11.94299030303955</v>
       </c>
       <c r="J62" t="n">
-        <v>66.76195526123047</v>
+        <v>52.80181121826172</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>290.0005493164062</v>
+        <v>294.8509216308594</v>
       </c>
       <c r="H63" t="n">
-        <v>21.73551940917969</v>
+        <v>17.87584114074707</v>
       </c>
       <c r="I63" t="n">
-        <v>142.3221130371094</v>
+        <v>147.4629364013672</v>
       </c>
       <c r="J63" t="n">
-        <v>67.45454406738281</v>
+        <v>63.34707260131836</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>333.1918334960938</v>
+        <v>342.1294860839844</v>
       </c>
       <c r="H64" t="n">
-        <v>28.0795841217041</v>
+        <v>18.84888458251953</v>
       </c>
       <c r="I64" t="n">
-        <v>317.2977600097656</v>
+        <v>310.5596618652344</v>
       </c>
       <c r="J64" t="n">
-        <v>84.61264038085938</v>
+        <v>94.81672668457031</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>410.5947570800781</v>
+        <v>421.2794494628906</v>
       </c>
       <c r="H65" t="n">
-        <v>34.1397819519043</v>
+        <v>19.21696662902832</v>
       </c>
       <c r="I65" t="n">
-        <v>573.192626953125</v>
+        <v>554.8023071289062</v>
       </c>
       <c r="J65" t="n">
-        <v>115.3478546142578</v>
+        <v>143.0953826904297</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>255.9144744873047</v>
+        <v>252.4558715820312</v>
       </c>
       <c r="H66" t="n">
-        <v>17.09883117675781</v>
+        <v>15.65138149261475</v>
       </c>
       <c r="I66" t="n">
-        <v>-267.9046325683594</v>
+        <v>-245.3657989501953</v>
       </c>
       <c r="J66" t="n">
-        <v>68.98184967041016</v>
+        <v>42.25687789916992</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>261.7864685058594</v>
+        <v>260.4816589355469</v>
       </c>
       <c r="H67" t="n">
-        <v>16.97381210327148</v>
+        <v>15.36350727081299</v>
       </c>
       <c r="I67" t="n">
-        <v>-237.8455352783203</v>
+        <v>-217.9607696533203</v>
       </c>
       <c r="J67" t="n">
-        <v>69.84785461425781</v>
+        <v>44.26421737670898</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>277.4980773925781</v>
+        <v>280.3613891601562</v>
       </c>
       <c r="H68" t="n">
-        <v>18.88475036621094</v>
+        <v>15.556565284729</v>
       </c>
       <c r="I68" t="n">
-        <v>-121.3254470825195</v>
+        <v>-109.6101913452148</v>
       </c>
       <c r="J68" t="n">
-        <v>71.63253784179688</v>
+        <v>52.32249450683594</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>290.7002258300781</v>
+        <v>295.8705139160156</v>
       </c>
       <c r="H69" t="n">
-        <v>21.24571418762207</v>
+        <v>16.05716514587402</v>
       </c>
       <c r="I69" t="n">
-        <v>-30.6519718170166</v>
+        <v>-25.24075317382812</v>
       </c>
       <c r="J69" t="n">
-        <v>72.57296752929688</v>
+        <v>60.35354614257812</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>329.8883361816406</v>
+        <v>339.44384765625</v>
       </c>
       <c r="H70" t="n">
-        <v>27.86934661865234</v>
+        <v>17.56314086914062</v>
       </c>
       <c r="I70" t="n">
-        <v>185.9739379882812</v>
+        <v>176.4800567626953</v>
       </c>
       <c r="J70" t="n">
-        <v>83.51240539550781</v>
+        <v>86.62079620361328</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>293.9069519042969</v>
+        <v>308.6175537109375</v>
       </c>
       <c r="H2" t="n">
-        <v>52.65136337280273</v>
+        <v>58.62214279174805</v>
       </c>
       <c r="I2" t="n">
-        <v>784.6348266601562</v>
+        <v>639.8294067382812</v>
       </c>
       <c r="J2" t="n">
-        <v>35.42421722412109</v>
+        <v>103.4845733642578</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>358.3587341308594</v>
+        <v>353.1054992675781</v>
       </c>
       <c r="H3" t="n">
-        <v>59.27399444580078</v>
+        <v>79.80661773681641</v>
       </c>
       <c r="I3" t="n">
-        <v>827.19287109375</v>
+        <v>680.3795776367188</v>
       </c>
       <c r="J3" t="n">
-        <v>38.20663833618164</v>
+        <v>118.0586013793945</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>423.8785705566406</v>
+        <v>414.8843994140625</v>
       </c>
       <c r="H4" t="n">
-        <v>59.54753112792969</v>
+        <v>124.8309631347656</v>
       </c>
       <c r="I4" t="n">
-        <v>853.8847045898438</v>
+        <v>699.1965942382812</v>
       </c>
       <c r="J4" t="n">
-        <v>42.63979721069336</v>
+        <v>116.1403121948242</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>493.5858154296875</v>
+        <v>476.3465576171875</v>
       </c>
       <c r="H5" t="n">
-        <v>56.44256973266602</v>
+        <v>142.2129516601562</v>
       </c>
       <c r="I5" t="n">
-        <v>876.851806640625</v>
+        <v>709.2411499023438</v>
       </c>
       <c r="J5" t="n">
-        <v>48.86238861083984</v>
+        <v>108.8415603637695</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>576.7731323242188</v>
+        <v>537.0869140625</v>
       </c>
       <c r="H6" t="n">
-        <v>50.23215103149414</v>
+        <v>141.6869049072266</v>
       </c>
       <c r="I6" t="n">
-        <v>894.710693359375</v>
+        <v>701.296875</v>
       </c>
       <c r="J6" t="n">
-        <v>58.90350723266602</v>
+        <v>100.1089172363281</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>213.4592895507812</v>
+        <v>256.9671630859375</v>
       </c>
       <c r="H7" t="n">
-        <v>25.48153495788574</v>
+        <v>37.11055755615234</v>
       </c>
       <c r="I7" t="n">
-        <v>643.6582641601562</v>
+        <v>628.7007446289062</v>
       </c>
       <c r="J7" t="n">
-        <v>28.96100997924805</v>
+        <v>70.52196502685547</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>240.1150970458984</v>
+        <v>260.5980529785156</v>
       </c>
       <c r="H8" t="n">
-        <v>27.83981132507324</v>
+        <v>51.00584411621094</v>
       </c>
       <c r="I8" t="n">
-        <v>711.8693237304688</v>
+        <v>646.2925415039062</v>
       </c>
       <c r="J8" t="n">
-        <v>33.35991287231445</v>
+        <v>99.44980621337891</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>300.2117919921875</v>
+        <v>295.4465637207031</v>
       </c>
       <c r="H9" t="n">
-        <v>34.43965530395508</v>
+        <v>52.95291900634766</v>
       </c>
       <c r="I9" t="n">
-        <v>793.9734497070312</v>
+        <v>679.6680297851562</v>
       </c>
       <c r="J9" t="n">
-        <v>39.80715560913086</v>
+        <v>111.9928359985352</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>359.57373046875</v>
+        <v>304.7474670410156</v>
       </c>
       <c r="H10" t="n">
-        <v>37.91823196411133</v>
+        <v>51.13197326660156</v>
       </c>
       <c r="I10" t="n">
-        <v>840.2178344726562</v>
+        <v>694.7361450195312</v>
       </c>
       <c r="J10" t="n">
-        <v>44.2578010559082</v>
+        <v>111.1777191162109</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>447.568603515625</v>
+        <v>349.8640441894531</v>
       </c>
       <c r="H11" t="n">
-        <v>38.96540832519531</v>
+        <v>77.93715667724609</v>
       </c>
       <c r="I11" t="n">
-        <v>888.2083129882812</v>
+        <v>703.0770874023438</v>
       </c>
       <c r="J11" t="n">
-        <v>50.55086135864258</v>
+        <v>105.0066604614258</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>530.3082885742188</v>
+        <v>451.6617126464844</v>
       </c>
       <c r="H12" t="n">
-        <v>36.94967269897461</v>
+        <v>128.4160614013672</v>
       </c>
       <c r="I12" t="n">
-        <v>926.3215942382812</v>
+        <v>706.5414428710938</v>
       </c>
       <c r="J12" t="n">
-        <v>60.35381698608398</v>
+        <v>99.0390625</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>626.8472290039062</v>
+        <v>569.1170043945312</v>
       </c>
       <c r="H13" t="n">
-        <v>32.72494506835938</v>
+        <v>139.6242370605469</v>
       </c>
       <c r="I13" t="n">
-        <v>963.2914428710938</v>
+        <v>707.756103515625</v>
       </c>
       <c r="J13" t="n">
-        <v>71.99126434326172</v>
+        <v>93.05716705322266</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>182.2806549072266</v>
+        <v>307.6011047363281</v>
       </c>
       <c r="H14" t="n">
-        <v>31.16180229187012</v>
+        <v>54.85612487792969</v>
       </c>
       <c r="I14" t="n">
-        <v>394.8958740234375</v>
+        <v>451.6562805175781</v>
       </c>
       <c r="J14" t="n">
-        <v>28.4003734588623</v>
+        <v>49.89130401611328</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>195.9691009521484</v>
+        <v>283.3102111816406</v>
       </c>
       <c r="H15" t="n">
-        <v>23.05832672119141</v>
+        <v>31.69283485412598</v>
       </c>
       <c r="I15" t="n">
-        <v>517.3189697265625</v>
+        <v>609.4713134765625</v>
       </c>
       <c r="J15" t="n">
-        <v>26.54759979248047</v>
+        <v>52.08618545532227</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>244.9327850341797</v>
+        <v>277.1660461425781</v>
       </c>
       <c r="H16" t="n">
-        <v>17.0506706237793</v>
+        <v>40.43244171142578</v>
       </c>
       <c r="I16" t="n">
-        <v>673.9364013671875</v>
+        <v>739.1061401367188</v>
       </c>
       <c r="J16" t="n">
-        <v>35.16719818115234</v>
+        <v>91.40595245361328</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>252.6516571044922</v>
+        <v>274.6878967285156</v>
       </c>
       <c r="H17" t="n">
-        <v>18.78994560241699</v>
+        <v>44.98004913330078</v>
       </c>
       <c r="I17" t="n">
-        <v>700.6535034179688</v>
+        <v>734.3936157226562</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80127334594727</v>
+        <v>103.2107467651367</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>307.8020935058594</v>
+        <v>302.7047424316406</v>
       </c>
       <c r="H18" t="n">
-        <v>24.20825958251953</v>
+        <v>59.72610473632812</v>
       </c>
       <c r="I18" t="n">
-        <v>788.260009765625</v>
+        <v>764.3015747070312</v>
       </c>
       <c r="J18" t="n">
-        <v>45.39933395385742</v>
+        <v>115.7898025512695</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>391.2932434082031</v>
+        <v>312.1991882324219</v>
       </c>
       <c r="H19" t="n">
-        <v>28.38647651672363</v>
+        <v>45.70975875854492</v>
       </c>
       <c r="I19" t="n">
-        <v>867.538818359375</v>
+        <v>772.3930053710938</v>
       </c>
       <c r="J19" t="n">
-        <v>56.75500869750977</v>
+        <v>110.0508651733398</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>481.43017578125</v>
+        <v>352.0133056640625</v>
       </c>
       <c r="H20" t="n">
-        <v>28.68795013427734</v>
+        <v>95.85466003417969</v>
       </c>
       <c r="I20" t="n">
-        <v>928.1975708007812</v>
+        <v>764.7412109375</v>
       </c>
       <c r="J20" t="n">
-        <v>66.02727508544922</v>
+        <v>100.2269668579102</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>587.0055541992188</v>
+        <v>488.2093811035156</v>
       </c>
       <c r="H21" t="n">
-        <v>25.43424224853516</v>
+        <v>146.3939666748047</v>
       </c>
       <c r="I21" t="n">
-        <v>981.8361206054688</v>
+        <v>756.2190551757812</v>
       </c>
       <c r="J21" t="n">
-        <v>80.98973846435547</v>
+        <v>90.750244140625</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>702.221435546875</v>
+        <v>740.25244140625</v>
       </c>
       <c r="H22" t="n">
-        <v>27.78697204589844</v>
+        <v>114.0379867553711</v>
       </c>
       <c r="I22" t="n">
-        <v>1026.991821289062</v>
+        <v>743.3881225585938</v>
       </c>
       <c r="J22" t="n">
-        <v>96.61525726318359</v>
+        <v>86.35943603515625</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>183.763671875</v>
+        <v>326.9705505371094</v>
       </c>
       <c r="H23" t="n">
-        <v>31.56501960754395</v>
+        <v>73.54640960693359</v>
       </c>
       <c r="I23" t="n">
-        <v>263.67822265625</v>
+        <v>266.7916564941406</v>
       </c>
       <c r="J23" t="n">
-        <v>39.27474594116211</v>
+        <v>63.22444915771484</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>190.0608062744141</v>
+        <v>321.0165405273438</v>
       </c>
       <c r="H24" t="n">
-        <v>25.71070098876953</v>
+        <v>71.36316680908203</v>
       </c>
       <c r="I24" t="n">
-        <v>338.5273132324219</v>
+        <v>386.2048645019531</v>
       </c>
       <c r="J24" t="n">
-        <v>34.53308868408203</v>
+        <v>55.28902053833008</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>206.382568359375</v>
+        <v>305.5588989257812</v>
       </c>
       <c r="H25" t="n">
-        <v>18.29208183288574</v>
+        <v>56.33632659912109</v>
       </c>
       <c r="I25" t="n">
-        <v>460.2368469238281</v>
+        <v>567.4260864257812</v>
       </c>
       <c r="J25" t="n">
-        <v>31.87567710876465</v>
+        <v>49.22035598754883</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>230.1822357177734</v>
+        <v>289.9320068359375</v>
       </c>
       <c r="H26" t="n">
-        <v>15.47313594818115</v>
+        <v>35.9918212890625</v>
       </c>
       <c r="I26" t="n">
-        <v>564.71044921875</v>
+        <v>695.070068359375</v>
       </c>
       <c r="J26" t="n">
-        <v>34.84097671508789</v>
+        <v>82.58177947998047</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>271.0718994140625</v>
+        <v>292.3630981445312</v>
       </c>
       <c r="H27" t="n">
-        <v>18.53079795837402</v>
+        <v>38.33234024047852</v>
       </c>
       <c r="I27" t="n">
-        <v>665.6787719726562</v>
+        <v>780.8213500976562</v>
       </c>
       <c r="J27" t="n">
-        <v>44.76342391967773</v>
+        <v>109.8499374389648</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>346.0838623046875</v>
+        <v>308.8647766113281</v>
       </c>
       <c r="H28" t="n">
-        <v>24.36480712890625</v>
+        <v>53.28744506835938</v>
       </c>
       <c r="I28" t="n">
-        <v>795.3128051757812</v>
+        <v>829.5421752929688</v>
       </c>
       <c r="J28" t="n">
-        <v>60.69742584228516</v>
+        <v>118.0471420288086</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>431.0632019042969</v>
+        <v>331.9772644042969</v>
       </c>
       <c r="H29" t="n">
-        <v>25.74890327453613</v>
+        <v>68.50426483154297</v>
       </c>
       <c r="I29" t="n">
-        <v>885.9498901367188</v>
+        <v>827.891845703125</v>
       </c>
       <c r="J29" t="n">
-        <v>75.80380249023438</v>
+        <v>121.1936264038086</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>556.2657470703125</v>
+        <v>436.7493896484375</v>
       </c>
       <c r="H30" t="n">
-        <v>21.83137321472168</v>
+        <v>146.8472442626953</v>
       </c>
       <c r="I30" t="n">
-        <v>975.75146484375</v>
+        <v>802.278076171875</v>
       </c>
       <c r="J30" t="n">
-        <v>93.19727325439453</v>
+        <v>110.3235397338867</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>673.9092407226562</v>
+        <v>702.5238647460938</v>
       </c>
       <c r="H31" t="n">
-        <v>21.43905067443848</v>
+        <v>121.7073211669922</v>
       </c>
       <c r="I31" t="n">
-        <v>1034.417602539062</v>
+        <v>783.3599243164062</v>
       </c>
       <c r="J31" t="n">
-        <v>118.8562622070312</v>
+        <v>99.92209625244141</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>188.5180053710938</v>
+        <v>364.4283142089844</v>
       </c>
       <c r="H32" t="n">
-        <v>31.31835556030273</v>
+        <v>85.62844085693359</v>
       </c>
       <c r="I32" t="n">
-        <v>112.5235214233398</v>
+        <v>107.675178527832</v>
       </c>
       <c r="J32" t="n">
-        <v>48.25624084472656</v>
+        <v>80.53955841064453</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>194.9334869384766</v>
+        <v>355.5329284667969</v>
       </c>
       <c r="H33" t="n">
-        <v>24.39289474487305</v>
+        <v>84.52781677246094</v>
       </c>
       <c r="I33" t="n">
-        <v>200.2506713867188</v>
+        <v>218.4700927734375</v>
       </c>
       <c r="J33" t="n">
-        <v>43.88162231445312</v>
+        <v>78.40403747558594</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>207.7667999267578</v>
+        <v>339.19287109375</v>
       </c>
       <c r="H34" t="n">
-        <v>18.64992523193359</v>
+        <v>82.4290771484375</v>
       </c>
       <c r="I34" t="n">
-        <v>304.1744689941406</v>
+        <v>372.4745178222656</v>
       </c>
       <c r="J34" t="n">
-        <v>39.67766189575195</v>
+        <v>65.09719848632812</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>228.4318084716797</v>
+        <v>327.5677490234375</v>
       </c>
       <c r="H35" t="n">
-        <v>16.34779167175293</v>
+        <v>75.82974243164062</v>
       </c>
       <c r="I35" t="n">
-        <v>394.0369567871094</v>
+        <v>511.51416015625</v>
       </c>
       <c r="J35" t="n">
-        <v>40.14437866210938</v>
+        <v>70.93185424804688</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>267.5199584960938</v>
+        <v>309.2568054199219</v>
       </c>
       <c r="H36" t="n">
-        <v>18.96231651306152</v>
+        <v>53.72731399536133</v>
       </c>
       <c r="I36" t="n">
-        <v>549.4378662109375</v>
+        <v>696.8934936523438</v>
       </c>
       <c r="J36" t="n">
-        <v>48.47755432128906</v>
+        <v>103.5082092285156</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>317.861083984375</v>
+        <v>316.0403137207031</v>
       </c>
       <c r="H37" t="n">
-        <v>22.86441802978516</v>
+        <v>50.06954574584961</v>
       </c>
       <c r="I37" t="n">
-        <v>663.7700805664062</v>
+        <v>778.94970703125</v>
       </c>
       <c r="J37" t="n">
-        <v>64.06317138671875</v>
+        <v>118.1554946899414</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>408.1788024902344</v>
+        <v>335.1278991699219</v>
       </c>
       <c r="H38" t="n">
-        <v>24.85530090332031</v>
+        <v>65.07234191894531</v>
       </c>
       <c r="I38" t="n">
-        <v>816.9601440429688</v>
+        <v>840.1388549804688</v>
       </c>
       <c r="J38" t="n">
-        <v>85.65683746337891</v>
+        <v>137.9671020507812</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>505.5179443359375</v>
+        <v>418.1681823730469</v>
       </c>
       <c r="H39" t="n">
-        <v>21.03084945678711</v>
+        <v>110.0351181030273</v>
       </c>
       <c r="I39" t="n">
-        <v>914.8649291992188</v>
+        <v>835.7151489257812</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9508972167969</v>
+        <v>135.7232513427734</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>640.543701171875</v>
+        <v>636.048095703125</v>
       </c>
       <c r="H40" t="n">
-        <v>18.61253929138184</v>
+        <v>96.34049987792969</v>
       </c>
       <c r="I40" t="n">
-        <v>1010.682800292969</v>
+        <v>805.0936889648438</v>
       </c>
       <c r="J40" t="n">
-        <v>145.3420715332031</v>
+        <v>122.5336990356445</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>196.5506439208984</v>
+        <v>375.7486267089844</v>
       </c>
       <c r="H41" t="n">
-        <v>27.26651763916016</v>
+        <v>101.0565948486328</v>
       </c>
       <c r="I41" t="n">
-        <v>1.104456543922424</v>
+        <v>40.15197372436523</v>
       </c>
       <c r="J41" t="n">
-        <v>51.68677520751953</v>
+        <v>95.55092620849609</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>202.5961456298828</v>
+        <v>381.9537658691406</v>
       </c>
       <c r="H42" t="n">
-        <v>22.35473442077637</v>
+        <v>100.1844711303711</v>
       </c>
       <c r="I42" t="n">
-        <v>56.62933349609375</v>
+        <v>96.84426116943359</v>
       </c>
       <c r="J42" t="n">
-        <v>49.37738418579102</v>
+        <v>100.6648864746094</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>210.1044311523438</v>
+        <v>385.3983459472656</v>
       </c>
       <c r="H43" t="n">
-        <v>19.23681831359863</v>
+        <v>97.82528686523438</v>
       </c>
       <c r="I43" t="n">
-        <v>108.2462387084961</v>
+        <v>159.4245452880859</v>
       </c>
       <c r="J43" t="n">
-        <v>46.32600784301758</v>
+        <v>98.06536102294922</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>233.5562896728516</v>
+        <v>364.37939453125</v>
       </c>
       <c r="H44" t="n">
-        <v>16.90632820129395</v>
+        <v>101.621711730957</v>
       </c>
       <c r="I44" t="n">
-        <v>259.8025817871094</v>
+        <v>353.2368469238281</v>
       </c>
       <c r="J44" t="n">
-        <v>44.67107391357422</v>
+        <v>90.20540618896484</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>255.6264038085938</v>
+        <v>359.4368896484375</v>
       </c>
       <c r="H45" t="n">
-        <v>18.15171813964844</v>
+        <v>97.37042236328125</v>
       </c>
       <c r="I45" t="n">
-        <v>344.0601806640625</v>
+        <v>469.9130859375</v>
       </c>
       <c r="J45" t="n">
-        <v>47.39760208129883</v>
+        <v>104.4517669677734</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>301.2962951660156</v>
+        <v>355.7897033691406</v>
       </c>
       <c r="H46" t="n">
-        <v>21.39028930664062</v>
+        <v>79.56822204589844</v>
       </c>
       <c r="I46" t="n">
-        <v>496.0843200683594</v>
+        <v>628.8797607421875</v>
       </c>
       <c r="J46" t="n">
-        <v>64.63911437988281</v>
+        <v>126.7621841430664</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>377.2490234375</v>
+        <v>391.5649108886719</v>
       </c>
       <c r="H47" t="n">
-        <v>23.16768264770508</v>
+        <v>57.51591110229492</v>
       </c>
       <c r="I47" t="n">
-        <v>667.8602905273438</v>
+        <v>755.24365234375</v>
       </c>
       <c r="J47" t="n">
-        <v>95.14614868164062</v>
+        <v>141.4878540039062</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>486.000244140625</v>
+        <v>450.8094177246094</v>
       </c>
       <c r="H48" t="n">
-        <v>20.47105407714844</v>
+        <v>83.83847045898438</v>
       </c>
       <c r="I48" t="n">
-        <v>848.7421264648438</v>
+        <v>817.0735473632812</v>
       </c>
       <c r="J48" t="n">
-        <v>129.2929534912109</v>
+        <v>157.5482788085938</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>592.4202880859375</v>
+        <v>573.6904907226562</v>
       </c>
       <c r="H49" t="n">
-        <v>17.92377662658691</v>
+        <v>89.71696472167969</v>
       </c>
       <c r="I49" t="n">
-        <v>955.572265625</v>
+        <v>805.8161010742188</v>
       </c>
       <c r="J49" t="n">
-        <v>161.2301177978516</v>
+        <v>154.1273345947266</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>206.9846954345703</v>
+        <v>383.4228210449219</v>
       </c>
       <c r="H50" t="n">
-        <v>23.25614547729492</v>
+        <v>101.2643508911133</v>
       </c>
       <c r="I50" t="n">
-        <v>-118.979606628418</v>
+        <v>-24.76712226867676</v>
       </c>
       <c r="J50" t="n">
-        <v>49.75120162963867</v>
+        <v>100.9471435546875</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>214.9022827148438</v>
+        <v>397.5484924316406</v>
       </c>
       <c r="H51" t="n">
-        <v>19.26506996154785</v>
+        <v>101.6359405517578</v>
       </c>
       <c r="I51" t="n">
-        <v>-69.27910614013672</v>
+        <v>9.34759521484375</v>
       </c>
       <c r="J51" t="n">
-        <v>49.15549087524414</v>
+        <v>106.9644927978516</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>222.3571624755859</v>
+        <v>406.3464660644531</v>
       </c>
       <c r="H52" t="n">
-        <v>17.52876853942871</v>
+        <v>100.7046813964844</v>
       </c>
       <c r="I52" t="n">
-        <v>-37.82893753051758</v>
+        <v>35.21329879760742</v>
       </c>
       <c r="J52" t="n">
-        <v>47.47670745849609</v>
+        <v>108.1622467041016</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>241.2500610351562</v>
+        <v>393.8672790527344</v>
       </c>
       <c r="H53" t="n">
-        <v>16.54875373840332</v>
+        <v>104.1988372802734</v>
       </c>
       <c r="I53" t="n">
-        <v>71.66075897216797</v>
+        <v>138.6941528320312</v>
       </c>
       <c r="J53" t="n">
-        <v>48.85805511474609</v>
+        <v>110.2198867797852</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>264.4487609863281</v>
+        <v>384.3080139160156</v>
       </c>
       <c r="H54" t="n">
-        <v>17.65449714660645</v>
+        <v>106.9885330200195</v>
       </c>
       <c r="I54" t="n">
-        <v>181.7900390625</v>
+        <v>265.3398132324219</v>
       </c>
       <c r="J54" t="n">
-        <v>52.44524765014648</v>
+        <v>118.3757858276367</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>298.5211181640625</v>
+        <v>381.828369140625</v>
       </c>
       <c r="H55" t="n">
-        <v>19.74342727661133</v>
+        <v>99.07016754150391</v>
       </c>
       <c r="I55" t="n">
-        <v>329.4954833984375</v>
+        <v>434.74267578125</v>
       </c>
       <c r="J55" t="n">
-        <v>66.35153198242188</v>
+        <v>142.7567901611328</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>350.4827880859375</v>
+        <v>405.7191467285156</v>
       </c>
       <c r="H56" t="n">
-        <v>20.63242530822754</v>
+        <v>69.25422668457031</v>
       </c>
       <c r="I56" t="n">
-        <v>470.8531188964844</v>
+        <v>561.592041015625</v>
       </c>
       <c r="J56" t="n">
-        <v>98.41157531738281</v>
+        <v>161.8640441894531</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>435.8565673828125</v>
+        <v>462.3201599121094</v>
       </c>
       <c r="H57" t="n">
-        <v>20.54692077636719</v>
+        <v>70.14934539794922</v>
       </c>
       <c r="I57" t="n">
-        <v>684.5339965820312</v>
+        <v>716.4894409179688</v>
       </c>
       <c r="J57" t="n">
-        <v>133.2148590087891</v>
+        <v>175.9352874755859</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>561.8662109375</v>
+        <v>570.7431640625</v>
       </c>
       <c r="H58" t="n">
-        <v>18.20897102355957</v>
+        <v>88.23850250244141</v>
       </c>
       <c r="I58" t="n">
-        <v>874.9354858398438</v>
+        <v>761.4711303710938</v>
       </c>
       <c r="J58" t="n">
-        <v>189.5258483886719</v>
+        <v>208.9348754882812</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>227.7947387695312</v>
+        <v>411.09130859375</v>
       </c>
       <c r="H59" t="n">
-        <v>17.46092414855957</v>
+        <v>107.0727081298828</v>
       </c>
       <c r="I59" t="n">
-        <v>-184.1420745849609</v>
+        <v>-82.81179809570312</v>
       </c>
       <c r="J59" t="n">
-        <v>45.5971565246582</v>
+        <v>106.8234176635742</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>238.3142547607422</v>
+        <v>408.95654296875</v>
       </c>
       <c r="H60" t="n">
-        <v>16.20406341552734</v>
+        <v>107.6738357543945</v>
       </c>
       <c r="I60" t="n">
-        <v>-145.8186187744141</v>
+        <v>-67.43508148193359</v>
       </c>
       <c r="J60" t="n">
-        <v>47.67976760864258</v>
+        <v>111.8517837524414</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>249.7830963134766</v>
+        <v>412.2249450683594</v>
       </c>
       <c r="H61" t="n">
-        <v>15.9533224105835</v>
+        <v>105.0196380615234</v>
       </c>
       <c r="I61" t="n">
-        <v>-83.07999420166016</v>
+        <v>-20.93034553527832</v>
       </c>
       <c r="J61" t="n">
-        <v>48.42480850219727</v>
+        <v>118.5665588378906</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>268.342529296875</v>
+        <v>402.3423156738281</v>
       </c>
       <c r="H62" t="n">
-        <v>16.48739814758301</v>
+        <v>104.9773788452148</v>
       </c>
       <c r="I62" t="n">
-        <v>11.94299030303955</v>
+        <v>63.02622985839844</v>
       </c>
       <c r="J62" t="n">
-        <v>52.80181121826172</v>
+        <v>132.3771209716797</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>294.8509216308594</v>
+        <v>391.9397888183594</v>
       </c>
       <c r="H63" t="n">
-        <v>17.87584114074707</v>
+        <v>99.47543334960938</v>
       </c>
       <c r="I63" t="n">
-        <v>147.4629364013672</v>
+        <v>203.0328826904297</v>
       </c>
       <c r="J63" t="n">
-        <v>63.34707260131836</v>
+        <v>155.9550476074219</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>342.1294860839844</v>
+        <v>412.3480529785156</v>
       </c>
       <c r="H64" t="n">
-        <v>18.84888458251953</v>
+        <v>67.99428558349609</v>
       </c>
       <c r="I64" t="n">
-        <v>310.5596618652344</v>
+        <v>362.947021484375</v>
       </c>
       <c r="J64" t="n">
-        <v>94.81672668457031</v>
+        <v>193.0717620849609</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>421.2794494628906</v>
+        <v>474.4039611816406</v>
       </c>
       <c r="H65" t="n">
-        <v>19.21696662902832</v>
+        <v>78.14070129394531</v>
       </c>
       <c r="I65" t="n">
-        <v>554.8023071289062</v>
+        <v>572.1072387695312</v>
       </c>
       <c r="J65" t="n">
-        <v>143.0953826904297</v>
+        <v>205.9577941894531</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>252.4558715820312</v>
+        <v>413.5637512207031</v>
       </c>
       <c r="H66" t="n">
-        <v>15.65138149261475</v>
+        <v>109.5910339355469</v>
       </c>
       <c r="I66" t="n">
-        <v>-245.3657989501953</v>
+        <v>-174.0594940185547</v>
       </c>
       <c r="J66" t="n">
-        <v>42.25687789916992</v>
+        <v>105.3182144165039</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>260.4816589355469</v>
+        <v>414.2964782714844</v>
       </c>
       <c r="H67" t="n">
-        <v>15.36350727081299</v>
+        <v>105.9237594604492</v>
       </c>
       <c r="I67" t="n">
-        <v>-217.9607696533203</v>
+        <v>-163.4410095214844</v>
       </c>
       <c r="J67" t="n">
-        <v>44.26421737670898</v>
+        <v>108.3621444702148</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>280.3613891601562</v>
+        <v>412.8758544921875</v>
       </c>
       <c r="H68" t="n">
-        <v>15.556565284729</v>
+        <v>97.00901031494141</v>
       </c>
       <c r="I68" t="n">
-        <v>-109.6101913452148</v>
+        <v>-82.95983123779297</v>
       </c>
       <c r="J68" t="n">
-        <v>52.32249450683594</v>
+        <v>129.440673828125</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>295.8705139160156</v>
+        <v>410.0372314453125</v>
       </c>
       <c r="H69" t="n">
-        <v>16.05716514587402</v>
+        <v>91.75252532958984</v>
       </c>
       <c r="I69" t="n">
-        <v>-25.24075317382812</v>
+        <v>-7.058418273925781</v>
       </c>
       <c r="J69" t="n">
-        <v>60.35354614257812</v>
+        <v>150.8932189941406</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>339.44384765625</v>
+        <v>417.2081298828125</v>
       </c>
       <c r="H70" t="n">
-        <v>17.56314086914062</v>
+        <v>63.13013458251953</v>
       </c>
       <c r="I70" t="n">
-        <v>176.4800567626953</v>
+        <v>189.3551788330078</v>
       </c>
       <c r="J70" t="n">
-        <v>86.62079620361328</v>
+        <v>212.5345764160156</v>
       </c>
     </row>
   </sheetData>
